--- a/src/config/model_metrics.xlsx
+++ b/src/config/model_metrics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Mobatek\MobaXterm Professional Edition\Slash\RemoteFiles\1773202_2_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Mobatek\MobaXterm Professional Edition\Slash\RemoteFiles\67364_6_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -671,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1332,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E26">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
